--- a/analysis/SC/SC2022-rv-points.xlsx
+++ b/analysis/SC/SC2022-rv-points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86575F3-6510-0E4E-BE34-9D23E54D3E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC8DBC-48D5-C642-A7E6-A8CAF2FFF9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{96A60BDB-5804-B24A-942A-4A489EE5EDA1}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{4FD9A90C-0F8B-6C4A-AB23-36FC624E1E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{AF5274D0-9D18-D746-A2F9-31745FCC0DA5}" name="SC2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{9918552F-423F-EF4A-BC0A-267FDCE828C7}" name="SC2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-vi-points.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -64,9 +64,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>composite</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>SEM</t>
+  </si>
+  <si>
+    <t>RANK</t>
   </si>
   <si>
     <t>Δ</t>
@@ -135,12 +135,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -149,8 +158,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -173,7 +182,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SC2022-vi-points" connectionId="1" xr16:uid="{45121BAB-1E81-5240-AC8D-2E9EC691EE98}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SC2022-vi-points" connectionId="1" xr16:uid="{5C1EFC19-B23E-AF4F-AAAC-9A96D62C1C8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,54 +481,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F5AEE-FDBC-8648-95BB-135117B11418}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E8C134-D031-E843-89B0-CA583053943C}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10:L10"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
@@ -530,7 +539,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>0.30682999999999999</v>
@@ -568,7 +577,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0.38677099999999998</v>
@@ -606,22 +615,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0.40525899999999998</v>
       </c>
       <c r="C4" s="3">
-        <v>0.40790799999999999</v>
+        <v>0.40577999999999997</v>
       </c>
       <c r="D4" s="3">
         <v>0.394403</v>
       </c>
       <c r="E4" s="3">
-        <v>0.42052200000000001</v>
+        <v>0.41562300000000002</v>
       </c>
       <c r="F4" s="3">
-        <v>0.381409</v>
+        <v>0.33269199999999999</v>
       </c>
       <c r="G4" s="3">
         <v>0.422927</v>
@@ -630,36 +639,36 @@
         <v>0.40493699999999999</v>
       </c>
       <c r="I4" s="3">
-        <v>0.40535100000000002</v>
+        <v>0.39606000000000002</v>
       </c>
       <c r="J4" s="3">
-        <v>6.4260000000000003E-3</v>
+        <v>1.3287E-2</v>
       </c>
       <c r="K4" s="3">
-        <v>-9.2E-5</v>
+        <v>9.1990000000000006E-3</v>
       </c>
       <c r="L4" s="3">
-        <v>-1.4317E-2</v>
+        <v>0.69233100000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0.40595799999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.40577999999999997</v>
+        <v>0.40790799999999999</v>
       </c>
       <c r="D5" s="3">
         <v>0.402507</v>
       </c>
       <c r="E5" s="3">
-        <v>0.41562300000000002</v>
+        <v>0.42052200000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>0.37412899999999999</v>
+        <v>0.35855300000000001</v>
       </c>
       <c r="G5" s="3">
         <v>0.42703200000000002</v>
@@ -668,21 +677,21 @@
         <v>0.41459699999999999</v>
       </c>
       <c r="I5" s="3">
-        <v>0.406611</v>
+        <v>0.40518700000000002</v>
       </c>
       <c r="J5" s="3">
-        <v>7.3819999999999997E-3</v>
+        <v>9.9839999999999998E-3</v>
       </c>
       <c r="K5" s="3">
-        <v>-6.5300000000000004E-4</v>
+        <v>7.7099999999999998E-4</v>
       </c>
       <c r="L5" s="3">
-        <v>-8.8457999999999995E-2</v>
+        <v>7.7224000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0.42646899999999999</v>
@@ -697,7 +706,7 @@
         <v>0.450428</v>
       </c>
       <c r="F6" s="3">
-        <v>0.35855300000000001</v>
+        <v>0.37412899999999999</v>
       </c>
       <c r="G6" s="3">
         <v>0.461225</v>
@@ -706,21 +715,21 @@
         <v>0.42957899999999999</v>
       </c>
       <c r="I6" s="3">
-        <v>0.425956</v>
+        <v>0.42855199999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>1.5354E-2</v>
+        <v>1.3133000000000001E-2</v>
       </c>
       <c r="K6" s="3">
-        <v>5.13E-4</v>
+        <v>-2.0830000000000002E-3</v>
       </c>
       <c r="L6" s="3">
-        <v>3.3411000000000003E-2</v>
+        <v>-0.158608</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>0.43194700000000003</v>
@@ -735,7 +744,7 @@
         <v>0.45655499999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.33269199999999999</v>
+        <v>0.381409</v>
       </c>
       <c r="G7" s="3">
         <v>0.46762799999999999</v>
@@ -744,21 +753,21 @@
         <v>0.44632500000000003</v>
       </c>
       <c r="I7" s="3">
-        <v>0.43016500000000002</v>
+        <v>0.43828400000000001</v>
       </c>
       <c r="J7" s="3">
-        <v>2.0497999999999999E-2</v>
+        <v>1.3021E-2</v>
       </c>
       <c r="K7" s="3">
-        <v>1.7819999999999999E-3</v>
+        <v>-6.3369999999999998E-3</v>
       </c>
       <c r="L7" s="3">
-        <v>8.6934999999999998E-2</v>
+        <v>-0.48667500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>0.65932299999999999</v>
@@ -800,16 +809,22 @@
       </c>
       <c r="J10" s="3">
         <f>AVERAGE(J2:J8)</f>
-        <v>1.2083999999999999E-2</v>
+        <v>1.2050428571428571E-2</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ref="K10:L10" si="0">AVERAGE(K2:K8)</f>
-        <v>1.107142857142857E-4</v>
+        <v>1.1071428571428601E-4</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>-1.5892857142857146E-2</v>
-      </c>
+        <v>-6.4985714285713627E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/SC/SC2022-rv-points.xlsx
+++ b/analysis/SC/SC2022-rv-points.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEC8DBC-48D5-C642-A7E6-A8CAF2FFF9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF920DF-81DF-7E45-B869-B7B9C1C23DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{4FD9A90C-0F8B-6C4A-AB23-36FC624E1E85}"/>
+    <workbookView xWindow="1520" yWindow="1000" windowWidth="26900" windowHeight="16440" xr2:uid="{FD5D5655-8E45-AF4F-9F4A-DB7BA5591E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="SC2022_vi_points" localSheetId="0">Sheet1!$A$1:$L$8</definedName>
+    <definedName name="SC2022_vi_points" localSheetId="0">Sheet1!$A$1:$N$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,9 +40,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9918552F-423F-EF4A-BC0A-267FDCE828C7}" name="SC2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{B8A7942A-D097-4D46-8DA2-2319B8370027}" name="SC2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-vi-points.csv" comma="1">
-      <textFields count="12">
+      <textFields count="14">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>composite</t>
   </si>
@@ -91,10 +93,16 @@
     <t>SEM</t>
   </si>
   <si>
-    <t>RANK</t>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>Δ</t>
+  </si>
+  <si>
+    <t>Δ/MEAN</t>
   </si>
   <si>
     <t>Δ/SEM</t>
@@ -135,21 +143,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -158,8 +157,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -182,7 +181,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SC2022-vi-points" connectionId="1" xr16:uid="{5C1EFC19-B23E-AF4F-AAAC-9A96D62C1C8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SC2022-vi-points" connectionId="1" xr16:uid="{93A4BBF9-9299-EB4F-81D0-436A2F793D55}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,27 +480,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E8C134-D031-E843-89B0-CA583053943C}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FE42AD-45CE-D642-A273-988892FA89BB}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -531,13 +530,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,13 +574,19 @@
         <v>8.1440000000000002E-3</v>
       </c>
       <c r="K2" s="3">
+        <v>2.6428E-2</v>
+      </c>
+      <c r="L2" s="3">
         <v>-1.3290000000000001E-3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
+        <v>-4.313E-3</v>
+      </c>
+      <c r="N2" s="3">
         <v>-0.163188</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -607,13 +618,19 @@
         <v>1.5266999999999999E-2</v>
       </c>
       <c r="K3" s="3">
+        <v>3.9538999999999998E-2</v>
+      </c>
+      <c r="L3" s="3">
         <v>6.4400000000000004E-4</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
+        <v>1.668E-3</v>
+      </c>
+      <c r="N3" s="3">
         <v>4.2181999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -645,13 +662,19 @@
         <v>1.3287E-2</v>
       </c>
       <c r="K4" s="3">
+        <v>3.3548000000000001E-2</v>
+      </c>
+      <c r="L4" s="3">
         <v>9.1990000000000006E-3</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
+        <v>2.3226E-2</v>
+      </c>
+      <c r="N4" s="3">
         <v>0.69233100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -683,13 +706,19 @@
         <v>9.9839999999999998E-3</v>
       </c>
       <c r="K5" s="3">
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="L5" s="3">
         <v>7.7099999999999998E-4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
+        <v>1.903E-3</v>
+      </c>
+      <c r="N5" s="3">
         <v>7.7224000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -721,13 +750,19 @@
         <v>1.3133000000000001E-2</v>
       </c>
       <c r="K6" s="3">
+        <v>3.0644999999999999E-2</v>
+      </c>
+      <c r="L6" s="3">
         <v>-2.0830000000000002E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
+        <v>-4.8609999999999999E-3</v>
+      </c>
+      <c r="N6" s="3">
         <v>-0.158608</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -759,13 +794,19 @@
         <v>1.3021E-2</v>
       </c>
       <c r="K7" s="3">
+        <v>2.9708999999999999E-2</v>
+      </c>
+      <c r="L7" s="3">
         <v>-6.3369999999999998E-3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
+        <v>-1.4459E-2</v>
+      </c>
+      <c r="N7" s="3">
         <v>-0.48667500000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -797,34 +838,45 @@
         <v>1.1516999999999999E-2</v>
       </c>
       <c r="K8" s="3">
+        <v>1.7465999999999999E-2</v>
+      </c>
+      <c r="L8" s="3">
         <v>-9.0000000000000006E-5</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
+        <v>-1.36E-4</v>
+      </c>
+      <c r="N8" s="3">
         <v>-7.8150000000000008E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I10" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE(J2:J8)</f>
         <v>1.2050428571428571E-2</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" ref="K10:L10" si="0">AVERAGE(K2:K8)</f>
-        <v>1.1071428571428601E-4</v>
+        <f t="shared" ref="K10:N10" si="0">AVERAGE(K2:K8)</f>
+        <v>2.8853571428571426E-2</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
+        <v>1.1071428571428601E-4</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3257142857142859E-4</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="0"/>
         <v>-6.4985714285713627E-4</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/SC/SC2022-rv-points.xlsx
+++ b/analysis/SC/SC2022-rv-points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF920DF-81DF-7E45-B869-B7B9C1C23DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC8660F-DE87-8D46-B52B-A348F50245D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1000" windowWidth="26900" windowHeight="16440" xr2:uid="{FD5D5655-8E45-AF4F-9F4A-DB7BA5591E35}"/>
+    <workbookView xWindow="1520" yWindow="1000" windowWidth="26900" windowHeight="16440" xr2:uid="{CAF7848C-6BBC-524B-8BD2-3433FC2A8F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B8A7942A-D097-4D46-8DA2-2319B8370027}" name="SC2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{097DAFB8-FFC6-1E40-8A19-DC1944EC0922}" name="SC2022-vi-points" type="6" refreshedVersion="8" background="1" saveData="1">
     <textPr codePage="10000" sourceFile="/Users/alecramsay/dev/method_eval/data/SC/SC2022-vi-points.csv" comma="1">
       <textFields count="14">
         <textField/>
@@ -64,7 +64,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>CD</t>
+  </si>
   <si>
     <t>composite</t>
   </si>
@@ -96,9 +99,6 @@
     <t>RSE</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
     <t>Δ</t>
   </si>
   <si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Δ/SEM</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>Average</t>
@@ -181,7 +184,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SC2022-vi-points" connectionId="1" xr16:uid="{93A4BBF9-9299-EB4F-81D0-436A2F793D55}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="SC2022-vi-points" connectionId="1" xr16:uid="{DFCB3B8B-03A7-604B-86D2-F2AA044467DE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,57 +483,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FE42AD-45CE-D642-A273-988892FA89BB}">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD29E317-0AB0-3641-883B-C7E9EC2942DC}">
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
@@ -541,10 +544,13 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>0.30682999999999999</v>
@@ -586,9 +592,9 @@
         <v>-0.163188</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>0.38677099999999998</v>
@@ -630,24 +636,24 @@
         <v>4.2181999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>0.40525899999999998</v>
       </c>
       <c r="C4" s="3">
-        <v>0.40577999999999997</v>
+        <v>0.40790799999999999</v>
       </c>
       <c r="D4" s="3">
         <v>0.394403</v>
       </c>
       <c r="E4" s="3">
-        <v>0.41562300000000002</v>
+        <v>0.42052200000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>0.33269199999999999</v>
+        <v>0.381409</v>
       </c>
       <c r="G4" s="3">
         <v>0.422927</v>
@@ -656,42 +662,42 @@
         <v>0.40493699999999999</v>
       </c>
       <c r="I4" s="3">
-        <v>0.39606000000000002</v>
+        <v>0.40535100000000002</v>
       </c>
       <c r="J4" s="3">
-        <v>1.3287E-2</v>
+        <v>6.4260000000000003E-3</v>
       </c>
       <c r="K4" s="3">
-        <v>3.3548000000000001E-2</v>
+        <v>1.5852999999999999E-2</v>
       </c>
       <c r="L4" s="3">
-        <v>9.1990000000000006E-3</v>
+        <v>-9.2E-5</v>
       </c>
       <c r="M4" s="3">
-        <v>2.3226E-2</v>
+        <v>-2.2699999999999999E-4</v>
       </c>
       <c r="N4" s="3">
-        <v>0.69233100000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1.4317E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>0.40595799999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.40790799999999999</v>
+        <v>0.40577999999999997</v>
       </c>
       <c r="D5" s="3">
         <v>0.402507</v>
       </c>
       <c r="E5" s="3">
-        <v>0.42052200000000001</v>
+        <v>0.41562300000000002</v>
       </c>
       <c r="F5" s="3">
-        <v>0.35855300000000001</v>
+        <v>0.37412899999999999</v>
       </c>
       <c r="G5" s="3">
         <v>0.42703200000000002</v>
@@ -700,27 +706,27 @@
         <v>0.41459699999999999</v>
       </c>
       <c r="I5" s="3">
-        <v>0.40518700000000002</v>
+        <v>0.406611</v>
       </c>
       <c r="J5" s="3">
-        <v>9.9839999999999998E-3</v>
+        <v>7.3819999999999997E-3</v>
       </c>
       <c r="K5" s="3">
-        <v>2.4639999999999999E-2</v>
+        <v>1.8155000000000001E-2</v>
       </c>
       <c r="L5" s="3">
-        <v>7.7099999999999998E-4</v>
+        <v>-6.5300000000000004E-4</v>
       </c>
       <c r="M5" s="3">
-        <v>1.903E-3</v>
+        <v>-1.606E-3</v>
       </c>
       <c r="N5" s="3">
-        <v>7.7224000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-8.8457999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>0.42646899999999999</v>
@@ -735,7 +741,7 @@
         <v>0.450428</v>
       </c>
       <c r="F6" s="3">
-        <v>0.37412899999999999</v>
+        <v>0.35855300000000001</v>
       </c>
       <c r="G6" s="3">
         <v>0.461225</v>
@@ -744,27 +750,27 @@
         <v>0.42957899999999999</v>
       </c>
       <c r="I6" s="3">
-        <v>0.42855199999999999</v>
+        <v>0.425956</v>
       </c>
       <c r="J6" s="3">
-        <v>1.3133000000000001E-2</v>
+        <v>1.5354E-2</v>
       </c>
       <c r="K6" s="3">
-        <v>3.0644999999999999E-2</v>
+        <v>3.6046000000000002E-2</v>
       </c>
       <c r="L6" s="3">
-        <v>-2.0830000000000002E-3</v>
+        <v>5.13E-4</v>
       </c>
       <c r="M6" s="3">
-        <v>-4.8609999999999999E-3</v>
+        <v>1.204E-3</v>
       </c>
       <c r="N6" s="3">
-        <v>-0.158608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.3411000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
         <v>0.43194700000000003</v>
@@ -779,7 +785,7 @@
         <v>0.45655499999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.381409</v>
+        <v>0.33269199999999999</v>
       </c>
       <c r="G7" s="3">
         <v>0.46762799999999999</v>
@@ -788,27 +794,27 @@
         <v>0.44632500000000003</v>
       </c>
       <c r="I7" s="3">
-        <v>0.43828400000000001</v>
+        <v>0.43016500000000002</v>
       </c>
       <c r="J7" s="3">
-        <v>1.3021E-2</v>
+        <v>2.0497999999999999E-2</v>
       </c>
       <c r="K7" s="3">
-        <v>2.9708999999999999E-2</v>
+        <v>4.7650999999999999E-2</v>
       </c>
       <c r="L7" s="3">
-        <v>-6.3369999999999998E-3</v>
+        <v>1.7819999999999999E-3</v>
       </c>
       <c r="M7" s="3">
-        <v>-1.4459E-2</v>
+        <v>4.143E-3</v>
       </c>
       <c r="N7" s="3">
-        <v>-0.48667500000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8.6934999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.65932299999999999</v>
@@ -850,29 +856,29 @@
         <v>-7.8150000000000008E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE(J2:J8)</f>
-        <v>1.2050428571428571E-2</v>
+        <v>1.2083999999999999E-2</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" ref="K10:N10" si="0">AVERAGE(K2:K8)</f>
-        <v>2.8853571428571426E-2</v>
+        <v>2.8734000000000003E-2</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>1.1071428571428601E-4</v>
+        <v>1.107142857142857E-4</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="0"/>
-        <v>4.3257142857142859E-4</v>
+        <v>1.0471428571428582E-4</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>-6.4985714285713627E-4</v>
+        <v>-1.5892857142857146E-2</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.2">
